--- a/Base/Teams/Buccaneers/Distributions.xlsx
+++ b/Base/Teams/Buccaneers/Distributions.xlsx
@@ -28,16 +28,16 @@
     <t>PA</t>
   </si>
   <si>
-    <t>NIG(1.6039460460474175, 1.069197789871553, 1.4119102384191344, 3.6155080479851476)</t>
-  </si>
-  <si>
-    <t>NIG(1.4263634955450453, 1.0754432936744518, 3.993229891084275, 6.118694025165805)</t>
-  </si>
-  <si>
-    <t>JSU(-1.1093465563073348, 1.1445469254034384, -0.19096196711679886, 2.6537151251460047)</t>
-  </si>
-  <si>
-    <t>JSU(-1.1713929443188713, 1.1605589726659198, 2.731922323142119, 4.167041405418096)</t>
+    <t>JSU(-0.9987451158042411, 1.3810962333312156, 1.0411350441394822, 3.444787981497246)</t>
+  </si>
+  <si>
+    <t>NIG(1.6240365267290475, 1.2593863849166704, 3.3611749617286555, 6.125686089059519)</t>
+  </si>
+  <si>
+    <t>JSU(-1.1419186907387928, 1.0827439171401538, -0.21501551705003275, 2.360848634003835)</t>
+  </si>
+  <si>
+    <t>NIG(1.2195672461369644, 0.933011622399648, 3.903490447334241, 5.00829269464284)</t>
   </si>
 </sst>
 </file>

--- a/Base/Teams/Buccaneers/Distributions.xlsx
+++ b/Base/Teams/Buccaneers/Distributions.xlsx
@@ -28,16 +28,16 @@
     <t>PA</t>
   </si>
   <si>
-    <t>JSU(-0.9987451158042411, 1.3810962333312156, 1.0411350441394822, 3.444787981497246)</t>
-  </si>
-  <si>
-    <t>NIG(1.6240365267290475, 1.2593863849166704, 3.3611749617286555, 6.125686089059519)</t>
-  </si>
-  <si>
-    <t>JSU(-1.1419186907387928, 1.0827439171401538, -0.21501551705003275, 2.360848634003835)</t>
-  </si>
-  <si>
-    <t>NIG(1.2195672461369644, 0.933011622399648, 3.903490447334241, 5.00829269464284)</t>
+    <t>NIG(1.0342080460121794, 0.7167363786836042, 1.7073445035147568, 3.0450042025624375)</t>
+  </si>
+  <si>
+    <t>NIG(1.3494066382761636, 1.0222525412030188, 4.0077496499473595, 5.981840650360904)</t>
+  </si>
+  <si>
+    <t>JSU(-1.171071876238241, 1.0503248436437749, -0.2562736652361195, 2.347183198132743)</t>
+  </si>
+  <si>
+    <t>NIG(1.4224486559263763, 1.0885506991715033, 3.4749120890520224, 5.265986953654944)</t>
   </si>
 </sst>
 </file>

--- a/Base/Teams/Buccaneers/Distributions.xlsx
+++ b/Base/Teams/Buccaneers/Distributions.xlsx
@@ -28,16 +28,16 @@
     <t>PA</t>
   </si>
   <si>
-    <t>NIG(1.0342080460121794, 0.7167363786836042, 1.7073445035147568, 3.0450042025624375)</t>
-  </si>
-  <si>
-    <t>NIG(1.3494066382761636, 1.0222525412030188, 4.0077496499473595, 5.981840650360904)</t>
-  </si>
-  <si>
-    <t>JSU(-1.171071876238241, 1.0503248436437749, -0.2562736652361195, 2.347183198132743)</t>
-  </si>
-  <si>
-    <t>NIG(1.4224486559263763, 1.0885506991715033, 3.4749120890520224, 5.265986953654944)</t>
+    <t>NIG(0.8647090984694306, 0.6279050292696604, 1.6680471595701123, 2.9181192133307254)</t>
+  </si>
+  <si>
+    <t>JSU(-1.1927153770673833, 1.214860700748328, 2.7406797929057496, 5.08103349729418)</t>
+  </si>
+  <si>
+    <t>NIG(1.0271281951356217, 0.8037764716274598, 0.42598094621036353, 3.1210032669151033)</t>
+  </si>
+  <si>
+    <t>NIG(1.2642059964601333, 0.9860262200137587, 3.71168223775103, 4.965462266034573)</t>
   </si>
 </sst>
 </file>

--- a/Base/Teams/Buccaneers/Distributions.xlsx
+++ b/Base/Teams/Buccaneers/Distributions.xlsx
@@ -28,16 +28,16 @@
     <t>PA</t>
   </si>
   <si>
-    <t>NIG(0.8647090984694306, 0.6279050292696604, 1.6680471595701123, 2.9181192133307254)</t>
-  </si>
-  <si>
-    <t>JSU(-1.1927153770673833, 1.214860700748328, 2.7406797929057496, 5.08103349729418)</t>
-  </si>
-  <si>
-    <t>NIG(1.0271281951356217, 0.8037764716274598, 0.42598094621036353, 3.1210032669151033)</t>
-  </si>
-  <si>
-    <t>NIG(1.2642059964601333, 0.9860262200137587, 3.71168223775103, 4.965462266034573)</t>
+    <t>JSU(-0.824236650845197, 1.1375764519176808, 1.1957608198388425, 2.8858984212657735)</t>
+  </si>
+  <si>
+    <t>NIG(1.4390676132575315, 1.1168508324146638, 3.7434206684747093, 5.883850219269677)</t>
+  </si>
+  <si>
+    <t>JSU(-1.1191242086592545, 1.0212386763833265, -0.34480222830093976, 2.2833028969997384)</t>
+  </si>
+  <si>
+    <t>NIG(1.381777475895685, 1.0784832614810473, 3.5950970801903925, 5.1398442433773415)</t>
   </si>
 </sst>
 </file>

--- a/Base/Teams/Buccaneers/Distributions.xlsx
+++ b/Base/Teams/Buccaneers/Distributions.xlsx
@@ -28,16 +28,16 @@
     <t>PA</t>
   </si>
   <si>
-    <t>JSU(-0.824236650845197, 1.1375764519176808, 1.1957608198388425, 2.8858984212657735)</t>
-  </si>
-  <si>
-    <t>NIG(1.4390676132575315, 1.1168508324146638, 3.7434206684747093, 5.883850219269677)</t>
-  </si>
-  <si>
-    <t>JSU(-1.1191242086592545, 1.0212386763833265, -0.34480222830093976, 2.2833028969997384)</t>
-  </si>
-  <si>
-    <t>NIG(1.381777475895685, 1.0784832614810473, 3.5950970801903925, 5.1398442433773415)</t>
+    <t>JSU(-0.7465759548040882, 1.0906706641440915, 1.381463821113775, 2.752351486433011)</t>
+  </si>
+  <si>
+    <t>NIG(1.3993134252167332, 1.095486443316517, 3.7000130003033926, 5.722441951646958)</t>
+  </si>
+  <si>
+    <t>JSU(-1.075128692543469, 1.0557342414403257, -0.3273218794053411, 2.5941075992520877)</t>
+  </si>
+  <si>
+    <t>NIG(1.5802768602754775, 1.2514317073898051, 3.074217655208552, 5.340539688552582)</t>
   </si>
 </sst>
 </file>

--- a/Base/Teams/Buccaneers/Distributions.xlsx
+++ b/Base/Teams/Buccaneers/Distributions.xlsx
@@ -28,16 +28,16 @@
     <t>PA</t>
   </si>
   <si>
-    <t>JSU(-0.7465759548040882, 1.0906706641440915, 1.381463821113775, 2.752351486433011)</t>
-  </si>
-  <si>
-    <t>NIG(1.3993134252167332, 1.095486443316517, 3.7000130003033926, 5.722441951646958)</t>
-  </si>
-  <si>
-    <t>JSU(-1.075128692543469, 1.0557342414403257, -0.3273218794053411, 2.5941075992520877)</t>
-  </si>
-  <si>
-    <t>NIG(1.5802768602754775, 1.2514317073898051, 3.074217655208552, 5.340539688552582)</t>
+    <t>JSU(-0.7791253856517797, 1.1073232676938676, 1.2645139860528265, 2.7786174103803853)</t>
+  </si>
+  <si>
+    <t>NIG(1.3366693574265214, 1.0508698382454538, 3.7029111253614975, 5.653136882029561)</t>
+  </si>
+  <si>
+    <t>JSU(-1.0345121350878124, 1.0579872079252002, -0.25716504021565123, 2.6109531569470708)</t>
+  </si>
+  <si>
+    <t>NIG(1.3873503671575445, 1.0968709879154503, 3.4152504510461563, 5.242283163666832)</t>
   </si>
 </sst>
 </file>
